--- a/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiMoTi data
to hardness dataset.xlsx
+++ b/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiMoTi data
to hardness dataset.xlsx
@@ -664,7 +664,7 @@
         <v>2.725194759728065</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1294765609887397</v>
+        <v>0.1294765609887398</v>
       </c>
       <c r="Z2" t="n">
         <v>8.019565087964157</v>
@@ -673,10 +673,10 @@
         <v>1.882782738202394</v>
       </c>
       <c r="AB2" t="n">
-        <v>27.16288802278373</v>
+        <v>27.16288803153724</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.263728586220481e-06</v>
+        <v>1.263728580669365e-06</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>1.001467108726501</v>
+        <v>-2.53023624420166</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.49976444244385</v>
+        <v>8.149934768676758</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.026945226277379</v>
+        <v>0.02694522627737901</v>
       </c>
       <c r="U3" t="n">
         <v>1965.232211811153</v>
@@ -758,7 +758,7 @@
         <v>272.8648425860655</v>
       </c>
       <c r="W3" t="n">
-        <v>-6.78435871165528</v>
+        <v>-6.784358711655282</v>
       </c>
       <c r="X3" t="n">
         <v>3.05867883644598</v>
@@ -773,10 +773,10 @@
         <v>1.882863745105841</v>
       </c>
       <c r="AB3" t="n">
-        <v>25.12998730010283</v>
+        <v>25.12998731017126</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.492147609751584e-06</v>
+        <v>3.492147592099037e-06</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>1.0776606798172</v>
+        <v>-2.52933931350708</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.56551837921143</v>
+        <v>8.348854064941406</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         <v>287.9882959816393</v>
       </c>
       <c r="W4" t="n">
-        <v>-7.110372733273779</v>
+        <v>-7.110372733273778</v>
       </c>
       <c r="X4" t="n">
         <v>3.472869202386087</v>
@@ -873,10 +873,10 @@
         <v>1.88771008374703</v>
       </c>
       <c r="AB4" t="n">
-        <v>22.50042300736751</v>
+        <v>22.50042302268373</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.300454685360108e-05</v>
+        <v>1.300454675401408e-05</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>1.212893486022949</v>
+        <v>-2.454806804656982</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.67640495300293</v>
+        <v>8.61860179901123</v>
       </c>
     </row>
     <row r="5">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03650958141869899</v>
+        <v>0.03650958141869901</v>
       </c>
       <c r="U5" t="n">
         <v>1998.704549708214</v>
@@ -958,25 +958,25 @@
         <v>303.2036733109156</v>
       </c>
       <c r="W5" t="n">
-        <v>-7.448384251476016</v>
+        <v>-7.448384251476015</v>
       </c>
       <c r="X5" t="n">
-        <v>3.870669819197706</v>
+        <v>3.870669819197705</v>
       </c>
       <c r="Y5" t="n">
         <v>0.1481363288949336</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.632754295458398</v>
+        <v>7.632754295458397</v>
       </c>
       <c r="AA5" t="n">
         <v>1.888592288927109</v>
       </c>
       <c r="AB5" t="n">
-        <v>20.25822334808891</v>
+        <v>20.25822335607245</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.990090015515424e-05</v>
+        <v>3.990089999583724e-05</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>1.311419725418091</v>
+        <v>-2.456196308135986</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.85360431671143</v>
+        <v>8.759028434753418</v>
       </c>
     </row>
     <row r="6">
@@ -1055,28 +1055,28 @@
         <v>2018.214448345743</v>
       </c>
       <c r="V6" t="n">
-        <v>324.7308784847412</v>
+        <v>324.7308784847411</v>
       </c>
       <c r="W6" t="n">
-        <v>-8.088070431069367</v>
+        <v>-8.088070431069365</v>
       </c>
       <c r="X6" t="n">
-        <v>4.408553128514561</v>
+        <v>4.40855312851456</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1577895466199949</v>
+        <v>0.1577895466199948</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.522190808934132</v>
+        <v>7.522190808934131</v>
       </c>
       <c r="AA6" t="n">
         <v>1.906034934854781</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.08894479457607</v>
+        <v>18.08894480371958</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0001180417246480214</v>
+        <v>0.000118041724108342</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>1.406014561653137</v>
+        <v>-2.442868709564209</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.11351776123047</v>
+        <v>9.015795707702637</v>
       </c>
     </row>
     <row r="7">
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01965435998709448</v>
+        <v>0.01965435998709447</v>
       </c>
       <c r="U7" t="n">
-        <v>1892.938009525174</v>
+        <v>1892.938009525173</v>
       </c>
       <c r="V7" t="n">
         <v>237.5653691001578</v>
       </c>
       <c r="W7" t="n">
-        <v>-5.994507720450256</v>
+        <v>-5.994507720450255</v>
       </c>
       <c r="X7" t="n">
         <v>2.581847742723802</v>
@@ -1167,16 +1167,16 @@
         <v>0.118462799182464</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.395015690413883</v>
+        <v>8.395015690413882</v>
       </c>
       <c r="AA7" t="n">
         <v>1.794908847638016</v>
       </c>
       <c r="AB7" t="n">
-        <v>20.98415451588193</v>
+        <v>20.98415451930747</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.775548005129469e-05</v>
+        <v>2.775548000377714e-05</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>0.5207288861274719</v>
+        <v>-2.953606605529785</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.63679695129395</v>
+        <v>8.008749008178711</v>
       </c>
     </row>
     <row r="8">
@@ -1258,25 +1258,25 @@
         <v>247.3803952796019</v>
       </c>
       <c r="W8" t="n">
-        <v>-6.183842717090985</v>
+        <v>-6.183842717090982</v>
       </c>
       <c r="X8" t="n">
-        <v>2.759795499553949</v>
+        <v>2.759795499553948</v>
       </c>
       <c r="Y8" t="n">
         <v>0.1223855138317489</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.255002054743928</v>
+        <v>8.255002054743926</v>
       </c>
       <c r="AA8" t="n">
         <v>1.81549624662442</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.95484259739768</v>
+        <v>18.95484260238864</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.656111105602825e-05</v>
+        <v>7.656111086495887e-05</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>0.6882813572883606</v>
+        <v>-2.833974838256836</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.74891757965088</v>
+        <v>8.272379875183105</v>
       </c>
     </row>
     <row r="9">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02725683407173547</v>
+        <v>0.0272568340717355</v>
       </c>
       <c r="U9" t="n">
         <v>1932.778266653697</v>
@@ -1373,10 +1373,10 @@
         <v>1.841990243468286</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.06064105359376</v>
+        <v>16.06064105953197</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0003254438787170244</v>
+        <v>0.0003254438777506863</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>0.9201399087905884</v>
+        <v>-2.772046327590942</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.93382549285889</v>
+        <v>8.514437675476074</v>
       </c>
     </row>
     <row r="10">
@@ -1458,25 +1458,25 @@
         <v>282.152996096776</v>
       </c>
       <c r="W10" t="n">
-        <v>-7.013371196182618</v>
+        <v>-7.013371196182621</v>
       </c>
       <c r="X10" t="n">
-        <v>3.63603906421679</v>
+        <v>3.636039064216791</v>
       </c>
       <c r="Y10" t="n">
         <v>0.1358791131797596</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.954126347312226</v>
+        <v>7.954126347312227</v>
       </c>
       <c r="AA10" t="n">
         <v>1.858662341015401</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.1923406091476</v>
+        <v>14.19234061653539</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0008282708822765494</v>
+        <v>0.0008282708792169968</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>0.9734384417533875</v>
+        <v>-2.780965328216553</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.01535034179688</v>
+        <v>8.672751426696777</v>
       </c>
     </row>
     <row r="11">
@@ -1558,7 +1558,7 @@
         <v>301.8142356671538</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.569709028266012</v>
+        <v>-7.569709028266014</v>
       </c>
       <c r="X11" t="n">
         <v>4.14684298561076</v>
@@ -1567,16 +1567,16 @@
         <v>0.144266728071026</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.803943277815691</v>
+        <v>7.803943277815693</v>
       </c>
       <c r="AA11" t="n">
         <v>1.876353876773989</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.65073626782231</v>
+        <v>12.65073627382376</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.001790307056473983</v>
+        <v>0.001790307051101836</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>1.191552758216858</v>
+        <v>-2.717265844345093</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.2146053314209</v>
+        <v>8.95460319519043</v>
       </c>
     </row>
     <row r="12">
@@ -1658,7 +1658,7 @@
         <v>312.7912526964028</v>
       </c>
       <c r="W12" t="n">
-        <v>-8.544522616153614</v>
+        <v>-8.544522616153612</v>
       </c>
       <c r="X12" t="n">
         <v>4.828722472818985</v>
@@ -1673,10 +1673,10 @@
         <v>1.913479908641325</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.25373486386095</v>
+        <v>12.25373486889068</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.002183409939269132</v>
+        <v>0.00218340993377808</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>1.464711308479309</v>
+        <v>-2.596562385559082</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.45824337005615</v>
+        <v>9.276708602905273</v>
       </c>
     </row>
     <row r="13">
@@ -1758,25 +1758,25 @@
         <v>335.0663881607878</v>
       </c>
       <c r="W13" t="n">
-        <v>-9.696165162328285</v>
+        <v>-9.696165162328283</v>
       </c>
       <c r="X13" t="n">
-        <v>5.529627551909937</v>
+        <v>5.529627551909936</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1630674105518074</v>
+        <v>0.1630674105518073</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.518731247211836</v>
+        <v>7.518731247211837</v>
       </c>
       <c r="AA13" t="n">
         <v>1.953826742856776</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.32037620236375</v>
+        <v>12.32037621036788</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.002111855991761447</v>
+        <v>0.002111855983309652</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>1.559355139732361</v>
+        <v>-2.630861520767212</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.76419353485107</v>
+        <v>9.638986587524414</v>
       </c>
     </row>
     <row r="14">
@@ -1852,31 +1852,31 @@
         <v>0.01739704546744002</v>
       </c>
       <c r="U14" t="n">
-        <v>1846.004872720976</v>
+        <v>1846.004872720977</v>
       </c>
       <c r="V14" t="n">
         <v>208.545571495524</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.094679961225654</v>
+        <v>-5.094679961225656</v>
       </c>
       <c r="X14" t="n">
         <v>2.418353126284907</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1040068291739515</v>
+        <v>0.1040068291739516</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.753101635493772</v>
+        <v>8.753101635493774</v>
       </c>
       <c r="AA14" t="n">
         <v>1.642333751820618</v>
       </c>
       <c r="AB14" t="n">
-        <v>25.08374098069968</v>
+        <v>25.08374098746853</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.573837925929801e-06</v>
+        <v>3.57383791382837e-06</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-0.2350628674030304</v>
+        <v>-3.604172468185425</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.62016582489014</v>
+        <v>7.480281352996826</v>
       </c>
     </row>
     <row r="15">
@@ -1949,34 +1949,34 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01947690848130698</v>
+        <v>0.01947690848130699</v>
       </c>
       <c r="U15" t="n">
         <v>1866.941193872086</v>
       </c>
       <c r="V15" t="n">
-        <v>226.0261257366551</v>
+        <v>226.026125736655</v>
       </c>
       <c r="W15" t="n">
-        <v>-5.441412868137491</v>
+        <v>-5.44141286813749</v>
       </c>
       <c r="X15" t="n">
-        <v>2.569150380285395</v>
+        <v>2.569150380285394</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1104513402409985</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.572316199529585</v>
+        <v>8.572316199529583</v>
       </c>
       <c r="AA15" t="n">
         <v>1.698161567663727</v>
       </c>
       <c r="AB15" t="n">
-        <v>18.53102329068516</v>
+        <v>18.53102329972461</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.463230541373324e-05</v>
+        <v>9.463230498607533e-05</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>0.04221166297793388</v>
+        <v>-3.441515207290649</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.90154266357422</v>
+        <v>7.926401615142822</v>
       </c>
     </row>
     <row r="16">
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02614807216016997</v>
+        <v>0.02614807216016998</v>
       </c>
       <c r="U16" t="n">
         <v>1896.591610650031</v>
       </c>
       <c r="V16" t="n">
-        <v>262.9862156880843</v>
+        <v>262.9862156880844</v>
       </c>
       <c r="W16" t="n">
-        <v>-6.066504624882787</v>
+        <v>-6.066504624882788</v>
       </c>
       <c r="X16" t="n">
-        <v>3.110339246432171</v>
+        <v>3.110339246432172</v>
       </c>
       <c r="Y16" t="n">
         <v>0.1214845237525694</v>
@@ -2073,10 +2073,10 @@
         <v>1.757842370440394</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.28960132730384</v>
+        <v>13.28960133425612</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.001300767682700266</v>
+        <v>0.00130076767817866</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>0.23016756772995</v>
+        <v>-3.393058061599731</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.21598052978516</v>
+        <v>8.329090118408203</v>
       </c>
     </row>
     <row r="17">
@@ -2152,7 +2152,7 @@
         <v>0.02740953437875311</v>
       </c>
       <c r="U17" t="n">
-        <v>1899.607557974004</v>
+        <v>1899.607557974005</v>
       </c>
       <c r="V17" t="n">
         <v>250.33118776717</v>
@@ -2173,10 +2173,10 @@
         <v>1.774013157089227</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.48735232192903</v>
+        <v>11.48735232722392</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.003202971965514778</v>
+        <v>0.003202971957035117</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>0.5296099185943604</v>
+        <v>-3.203211069107056</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.10744094848633</v>
+        <v>8.497940063476562</v>
       </c>
     </row>
     <row r="18">
@@ -2249,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0316784625857767</v>
+        <v>0.03167846258577671</v>
       </c>
       <c r="U18" t="n">
         <v>1918.914538936323</v>
       </c>
       <c r="V18" t="n">
-        <v>268.6088083257905</v>
+        <v>268.6088083257904</v>
       </c>
       <c r="W18" t="n">
         <v>-6.728312662984566</v>
@@ -2273,10 +2273,10 @@
         <v>1.796536213617284</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.451195487524409</v>
+        <v>9.45119549850536</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.008865413080448969</v>
+        <v>0.008865413031773683</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>0.7599539160728455</v>
+        <v>-3.054608583450317</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.30777835845947</v>
+        <v>8.783082962036133</v>
       </c>
     </row>
     <row r="19">
@@ -2349,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03883073678720242</v>
+        <v>0.03883073678720245</v>
       </c>
       <c r="U19" t="n">
-        <v>1936.944520901956</v>
+        <v>1936.944520901957</v>
       </c>
       <c r="V19" t="n">
         <v>286.114727429456</v>
       </c>
       <c r="W19" t="n">
-        <v>-7.752075638070176</v>
+        <v>-7.752075638070175</v>
       </c>
       <c r="X19" t="n">
         <v>4.499828510959734</v>
@@ -2373,10 +2373,10 @@
         <v>1.849247090506852</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.479326526164916</v>
+        <v>8.479326533673236</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01441244422812149</v>
+        <v>0.01441244417401488</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>1.051005125045776</v>
+        <v>-2.938765525817871</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.54117012023926</v>
+        <v>9.168996810913086</v>
       </c>
     </row>
     <row r="20">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04461186343544309</v>
+        <v>0.04461186343544311</v>
       </c>
       <c r="U20" t="n">
         <v>1954.568006482204</v>
@@ -2458,10 +2458,10 @@
         <v>302.1329935124126</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.660219988523377</v>
+        <v>-8.660219988523375</v>
       </c>
       <c r="X20" t="n">
-        <v>5.066392016039307</v>
+        <v>5.066392016039306</v>
       </c>
       <c r="Y20" t="n">
         <v>0.1457353177332849</v>
@@ -2473,10 +2473,10 @@
         <v>1.889766506706896</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.530488817031531</v>
+        <v>8.530488827492368</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01404843315671989</v>
+        <v>0.01404843308324077</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>1.393693566322327</v>
+        <v>-2.773268222808838</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.81803894042969</v>
+        <v>9.560567855834961</v>
       </c>
     </row>
     <row r="21">
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.05198665350521549</v>
+        <v>0.05198665350521548</v>
       </c>
       <c r="U21" t="n">
         <v>1969.978709878658</v>
@@ -2570,13 +2570,13 @@
         <v>7.625784978425697</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.958545681888617</v>
+        <v>1.958545681888618</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.626376898921626</v>
+        <v>9.626376904235332</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.008121922031263384</v>
+        <v>0.008121922009684646</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>1.636774182319641</v>
+        <v>-2.666579246520996</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.02264213562012</v>
+        <v>9.882621765136719</v>
       </c>
     </row>
     <row r="22">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05985793982608022</v>
+        <v>0.05985793982608023</v>
       </c>
       <c r="U22" t="n">
         <v>1996.200713394664</v>
@@ -2661,22 +2661,22 @@
         <v>-12.06417246312632</v>
       </c>
       <c r="X22" t="n">
-        <v>6.669299994840343</v>
+        <v>6.669299994840346</v>
       </c>
       <c r="Y22" t="n">
         <v>0.1714788632028532</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.361850390881772</v>
+        <v>7.361850390881773</v>
       </c>
       <c r="AA22" t="n">
         <v>2.03318915807749</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.83943365889571</v>
+        <v>12.83943366361845</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.001629117487577103</v>
+        <v>0.001629117483730069</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>1.695529341697693</v>
+        <v>-2.782275199890137</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.32175636291504</v>
+        <v>10.19125556945801</v>
       </c>
     </row>
     <row r="23">
@@ -2758,7 +2758,7 @@
         <v>194.5359229531003</v>
       </c>
       <c r="W23" t="n">
-        <v>-4.517885222436832</v>
+        <v>-4.517885222436833</v>
       </c>
       <c r="X23" t="n">
         <v>2.342413511136046</v>
@@ -2767,16 +2767,16 @@
         <v>0.09543470603399078</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.835047045046412</v>
+        <v>8.835047045046414</v>
       </c>
       <c r="AA23" t="n">
         <v>1.535777422704193</v>
       </c>
       <c r="AB23" t="n">
-        <v>23.4919943904918</v>
+        <v>23.4919944048475</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.920967541652502e-06</v>
+        <v>7.920967484809083e-06</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-0.4326787292957306</v>
+        <v>-3.823957920074463</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.88586807250977</v>
+        <v>7.613787651062012</v>
       </c>
     </row>
     <row r="24">
@@ -2864,19 +2864,19 @@
         <v>2.632730186938086</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.09994899088701827</v>
+        <v>0.09994899088701825</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.694488378477923</v>
+        <v>8.694488378477924</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.583615007422299</v>
+        <v>1.5836150074223</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.10786258071677</v>
+        <v>17.10786259361591</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.000192785711240262</v>
+        <v>0.0001927857099969232</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-0.3268518447875977</v>
+        <v>-3.763815879821777</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.0656681060791</v>
+        <v>7.884773254394531</v>
       </c>
     </row>
     <row r="25">
@@ -2958,7 +2958,7 @@
         <v>219.6686467883856</v>
       </c>
       <c r="W25" t="n">
-        <v>-5.34223457073141</v>
+        <v>-5.342234570731408</v>
       </c>
       <c r="X25" t="n">
         <v>2.988762674433695</v>
@@ -2967,16 +2967,16 @@
         <v>0.1065652409568925</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.532157437481349</v>
+        <v>8.53215743748135</v>
       </c>
       <c r="AA25" t="n">
         <v>1.636501504486467</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.17661424809018</v>
+        <v>12.17661425828082</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.002269247219064074</v>
+        <v>0.002269247207501546</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-0.2007512748241425</v>
+        <v>-3.748501300811768</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.17813968658447</v>
+        <v>8.127946853637695</v>
       </c>
     </row>
     <row r="26">
@@ -3058,7 +3058,7 @@
         <v>233.7827750446807</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.757498915755456</v>
+        <v>-5.757498915755457</v>
       </c>
       <c r="X26" t="n">
         <v>3.326658615019689</v>
@@ -3067,16 +3067,16 @@
         <v>0.112260311158507</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.394800376906851</v>
+        <v>8.394800376906852</v>
       </c>
       <c r="AA26" t="n">
         <v>1.675082869941759</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.404543472115467</v>
+        <v>9.404543488532561</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.009074638484370401</v>
+        <v>0.009074638409880764</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-0.04970062151551247</v>
+        <v>-3.764271974563599</v>
       </c>
       <c r="AF26" t="n">
-        <v>12.40989112854004</v>
+        <v>8.29784107208252</v>
       </c>
     </row>
     <row r="27">
@@ -3155,7 +3155,7 @@
         <v>1888.522296876517</v>
       </c>
       <c r="V27" t="n">
-        <v>248.7015154097845</v>
+        <v>248.7015154097846</v>
       </c>
       <c r="W27" t="n">
         <v>-6.405330687502009</v>
@@ -3173,10 +3173,10 @@
         <v>1.715493650301267</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.549824675071747</v>
+        <v>7.549824691737552</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.02293910145194944</v>
+        <v>0.02293910126080023</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>0.4673661887645721</v>
+        <v>-3.484197854995728</v>
       </c>
       <c r="AF27" t="n">
-        <v>12.63451766967773</v>
+        <v>8.926033973693848</v>
       </c>
     </row>
     <row r="28">
@@ -3255,7 +3255,7 @@
         <v>1908.625083921418</v>
       </c>
       <c r="V28" t="n">
-        <v>268.3262209995151</v>
+        <v>268.3262209995152</v>
       </c>
       <c r="W28" t="n">
         <v>-7.528630542893998</v>
@@ -3267,16 +3267,16 @@
         <v>0.1290665430053385</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.079933631752702</v>
+        <v>8.079933631752704</v>
       </c>
       <c r="AA28" t="n">
         <v>1.788739041612613</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.9040617659682</v>
+        <v>6.904061782539414</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.03168123012824364</v>
+        <v>0.0316812298657454</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>0.8212105631828308</v>
+        <v>-3.321592092514038</v>
       </c>
       <c r="AF28" t="n">
-        <v>12.92439365386963</v>
+        <v>9.35911750793457</v>
       </c>
     </row>
     <row r="29">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04509242286438606</v>
+        <v>0.04509242286438607</v>
       </c>
       <c r="U29" t="n">
         <v>1924.534454712694</v>
@@ -3373,10 +3373,10 @@
         <v>1.850493355719852</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.136372044456271</v>
+        <v>7.136372057769314</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02820697412468121</v>
+        <v>0.02820697393692084</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>1.296654582023621</v>
+        <v>-3.027654409408569</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.07406425476074</v>
+        <v>9.692914009094238</v>
       </c>
     </row>
     <row r="30">
@@ -3467,16 +3467,16 @@
         <v>0.1511517078432263</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.718060858733409</v>
+        <v>7.718060858733408</v>
       </c>
       <c r="AA30" t="n">
         <v>1.941272622660873</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.687525800868166</v>
+        <v>8.687525809001716</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01298756522498246</v>
+        <v>0.01298756517216493</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>1.566463351249695</v>
+        <v>-2.800806999206543</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.26012516021729</v>
+        <v>10.03522491455078</v>
       </c>
     </row>
     <row r="31">
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.06136890664099685</v>
+        <v>0.06136890664099688</v>
       </c>
       <c r="U31" t="n">
         <v>1959.846181129472</v>
@@ -3561,22 +3561,22 @@
         <v>-12.78837389426011</v>
       </c>
       <c r="X31" t="n">
-        <v>6.949359547274405</v>
+        <v>6.949359547274402</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1642509978251736</v>
+        <v>0.1642509978251735</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.453239485040996</v>
+        <v>7.453239485040992</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.045982747978779</v>
+        <v>2.045982747978778</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.63449270147841</v>
+        <v>11.63449270460055</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.002975788149886527</v>
+        <v>0.002975788145241132</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>1.744075655937195</v>
+        <v>-2.870893955230713</v>
       </c>
       <c r="AF31" t="n">
-        <v>13.54204368591309</v>
+        <v>10.33438014984131</v>
       </c>
     </row>
     <row r="32">
@@ -3667,16 +3667,16 @@
         <v>0.08608831927901155</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.877229809856251</v>
+        <v>8.877229809856253</v>
       </c>
       <c r="AA32" t="n">
         <v>1.433340635221596</v>
       </c>
       <c r="AB32" t="n">
-        <v>21.69013715743364</v>
+        <v>21.69013718474858</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.950053652410855e-05</v>
+        <v>1.950053625776604e-05</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-0.5232486128807068</v>
+        <v>-4.006196975708008</v>
       </c>
       <c r="AF32" t="n">
-        <v>12.28588485717773</v>
+        <v>7.813725471496582</v>
       </c>
     </row>
     <row r="33">
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02005287698639604</v>
+        <v>0.02005287698639602</v>
       </c>
       <c r="U33" t="n">
-        <v>1828.174076480355</v>
+        <v>1828.174076480354</v>
       </c>
       <c r="V33" t="n">
         <v>187.8867026100067</v>
@@ -3767,16 +3767,16 @@
         <v>0.0923369200142214</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.727387485378392</v>
+        <v>8.727387485378394</v>
       </c>
       <c r="AA33" t="n">
         <v>1.49184845250026</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.32203515802073</v>
+        <v>15.32203517705027</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0004708280621960048</v>
+        <v>0.0004708280577161439</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-0.4282947778701782</v>
+        <v>-3.966581344604492</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.40532398223877</v>
+        <v>8.164756774902344</v>
       </c>
     </row>
     <row r="34">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02340667151348476</v>
+        <v>0.02340667151348477</v>
       </c>
       <c r="U34" t="n">
         <v>1842.53899141852</v>
@@ -3858,7 +3858,7 @@
         <v>203.9119805416204</v>
       </c>
       <c r="W34" t="n">
-        <v>-4.879964777771953</v>
+        <v>-4.879964777771954</v>
       </c>
       <c r="X34" t="n">
         <v>2.9914260627542</v>
@@ -3870,13 +3870,13 @@
         <v>8.584083714612751</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.537891595222003</v>
+        <v>1.537891595222004</v>
       </c>
       <c r="AB34" t="n">
-        <v>11.21058081189721</v>
+        <v>11.21058083642842</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.003678352173778987</v>
+        <v>0.003678352128661744</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -3884,10 +3884,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-0.1813513487577438</v>
+        <v>-3.972800016403198</v>
       </c>
       <c r="AF34" t="n">
-        <v>12.56527996063232</v>
+        <v>8.454370498657227</v>
       </c>
     </row>
     <row r="35">
@@ -3958,7 +3958,7 @@
         <v>215.3435763930484</v>
       </c>
       <c r="W35" t="n">
-        <v>-5.401715275000321</v>
+        <v>-5.401715275000322</v>
       </c>
       <c r="X35" t="n">
         <v>3.451649138168169</v>
@@ -3967,16 +3967,16 @@
         <v>0.1037615697629466</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.455130350823577</v>
+        <v>8.455130350823579</v>
       </c>
       <c r="AA35" t="n">
         <v>1.578391418888722</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.994921987155042</v>
+        <v>8.994922017119723</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01113723818949541</v>
+        <v>0.01113723802263344</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>0.03080524876713753</v>
+        <v>-3.805603742599487</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.75978946685791</v>
+        <v>8.691231727600098</v>
       </c>
     </row>
     <row r="36">
@@ -4055,13 +4055,13 @@
         <v>1871.328810638551</v>
       </c>
       <c r="V36" t="n">
-        <v>234.1195505358264</v>
+        <v>234.1195505358265</v>
       </c>
       <c r="W36" t="n">
-        <v>-6.207548102956127</v>
+        <v>-6.20754810295613</v>
       </c>
       <c r="X36" t="n">
-        <v>3.995672476732512</v>
+        <v>3.995672476732513</v>
       </c>
       <c r="Y36" t="n">
         <v>0.1125949163041201</v>
@@ -4073,10 +4073,10 @@
         <v>1.646076820663437</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.589695231452033</v>
+        <v>7.589695256139494</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.02248633211906614</v>
+        <v>0.02248633184150084</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>0.3343217670917511</v>
+        <v>-3.665693283081055</v>
       </c>
       <c r="AF36" t="n">
-        <v>12.9907283782959</v>
+        <v>9.106968879699707</v>
       </c>
     </row>
     <row r="37">
@@ -4158,25 +4158,25 @@
         <v>249.5231895669747</v>
       </c>
       <c r="W37" t="n">
-        <v>-7.149269888331516</v>
+        <v>-7.149269888331517</v>
       </c>
       <c r="X37" t="n">
-        <v>4.580602116731222</v>
+        <v>4.580602116731223</v>
       </c>
       <c r="Y37" t="n">
         <v>0.1204672738191375</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.1775226977486</v>
+        <v>8.177522697748598</v>
       </c>
       <c r="AA37" t="n">
         <v>1.706887303940507</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.482550752077013</v>
+        <v>7.482550766452</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.02372382702816722</v>
+        <v>0.0237238268576524</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>0.7212425470352173</v>
+        <v>-3.516692876815796</v>
       </c>
       <c r="AF37" t="n">
-        <v>13.25768089294434</v>
+        <v>9.491969108581543</v>
       </c>
     </row>
     <row r="38">
@@ -4258,25 +4258,25 @@
         <v>267.955517596444</v>
       </c>
       <c r="W38" t="n">
-        <v>-8.499983747448452</v>
+        <v>-8.499983747448454</v>
       </c>
       <c r="X38" t="n">
-        <v>5.257125421822824</v>
+        <v>5.257125421822825</v>
       </c>
       <c r="Y38" t="n">
         <v>0.1317698614362234</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.983231044902071</v>
+        <v>7.983231044902072</v>
       </c>
       <c r="AA38" t="n">
         <v>1.793112124583807</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.750979711632929</v>
+        <v>7.750979727132226</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02074417373026105</v>
+        <v>0.02074417356950098</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>1.070374608039856</v>
+        <v>-3.247647285461426</v>
       </c>
       <c r="AF38" t="n">
-        <v>13.34710788726807</v>
+        <v>9.815587043762207</v>
       </c>
     </row>
     <row r="39">
@@ -4367,16 +4367,16 @@
         <v>0.1421670544178495</v>
       </c>
       <c r="Z39" t="n">
-        <v>7.799204875257919</v>
+        <v>7.799204875257918</v>
       </c>
       <c r="AA39" t="n">
         <v>1.891498966762572</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.845619707561484</v>
+        <v>8.845619720020215</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.01200046531398202</v>
+        <v>0.01200046523922671</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>1.335716366767883</v>
+        <v>-3.12256932258606</v>
       </c>
       <c r="AF39" t="n">
-        <v>13.49115657806396</v>
+        <v>9.955873489379883</v>
       </c>
     </row>
     <row r="40">
@@ -4449,19 +4449,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.06203850431051615</v>
+        <v>0.06203850431051611</v>
       </c>
       <c r="U40" t="n">
         <v>1931.991337486817</v>
       </c>
       <c r="V40" t="n">
-        <v>292.9426643223442</v>
+        <v>292.9426643223443</v>
       </c>
       <c r="W40" t="n">
         <v>-13.03630535919964</v>
       </c>
       <c r="X40" t="n">
-        <v>6.993463708553957</v>
+        <v>6.993463708553959</v>
       </c>
       <c r="Y40" t="n">
         <v>0.1579263444042211</v>
@@ -4473,10 +4473,10 @@
         <v>2.030469900039257</v>
       </c>
       <c r="AB40" t="n">
-        <v>12.01846227472439</v>
+        <v>12.01846227670582</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.00245597576267842</v>
+        <v>0.002455975760245255</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>1.515573501586914</v>
+        <v>-3.060237169265747</v>
       </c>
       <c r="AF40" t="n">
-        <v>13.60700988769531</v>
+        <v>10.3473596572876</v>
       </c>
     </row>
     <row r="41">
@@ -4567,16 +4567,16 @@
         <v>0.07917362595361378</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.835891679616505</v>
+        <v>8.835891679616507</v>
       </c>
       <c r="AA41" t="n">
         <v>1.3515369856457</v>
       </c>
       <c r="AB41" t="n">
-        <v>18.11110485609128</v>
+        <v>18.11110488540098</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0001167410378398737</v>
+        <v>0.000116741036129131</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-0.4897833466529846</v>
+        <v>-4.076447486877441</v>
       </c>
       <c r="AF41" t="n">
-        <v>12.51333999633789</v>
+        <v>8.082869529724121</v>
       </c>
     </row>
     <row r="42">
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01880086586279404</v>
+        <v>0.01880086586279406</v>
       </c>
       <c r="U42" t="n">
         <v>1818.68382189645</v>
@@ -4658,7 +4658,7 @@
         <v>171.5358855826844</v>
       </c>
       <c r="W42" t="n">
-        <v>-3.916494663786128</v>
+        <v>-3.916494663786127</v>
       </c>
       <c r="X42" t="n">
         <v>2.421695666149761</v>
@@ -4667,16 +4667,16 @@
         <v>0.08383711990900984</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.713002271277938</v>
+        <v>8.713002271277935</v>
       </c>
       <c r="AA42" t="n">
         <v>1.389207621495003</v>
       </c>
       <c r="AB42" t="n">
-        <v>14.20131210505925</v>
+        <v>14.20131213975773</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0008245637886196144</v>
+        <v>0.0008245637743140577</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -4684,10 +4684,10 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-0.4293874502182007</v>
+        <v>-4.202389717102051</v>
       </c>
       <c r="AF42" t="n">
-        <v>12.79776382446289</v>
+        <v>8.37712574005127</v>
       </c>
     </row>
     <row r="43">
@@ -4749,22 +4749,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.02152349612150525</v>
+        <v>0.02152349612150524</v>
       </c>
       <c r="U43" t="n">
-        <v>1826.726076183137</v>
+        <v>1826.726076183138</v>
       </c>
       <c r="V43" t="n">
         <v>179.2341687858081</v>
       </c>
       <c r="W43" t="n">
-        <v>-4.220984231619051</v>
+        <v>-4.220984231619052</v>
       </c>
       <c r="X43" t="n">
-        <v>2.725126528949923</v>
+        <v>2.725126528949924</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.08781957068462753</v>
+        <v>0.08781957068462755</v>
       </c>
       <c r="Z43" t="n">
         <v>8.614216723080775</v>
@@ -4773,10 +4773,10 @@
         <v>1.422324757136511</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.18487651746389</v>
+        <v>12.18487654459692</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.002259891990324281</v>
+        <v>0.002259891959665361</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-0.3017627596855164</v>
+        <v>-4.167500972747803</v>
       </c>
       <c r="AF43" t="n">
-        <v>12.8776330947876</v>
+        <v>8.495481491088867</v>
       </c>
     </row>
     <row r="44">
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.02682561572720429</v>
+        <v>0.02682561572720428</v>
       </c>
       <c r="U44" t="n">
         <v>1843.565591080131</v>
@@ -4858,25 +4858,25 @@
         <v>204.9714206893031</v>
       </c>
       <c r="W44" t="n">
-        <v>-4.80082848771547</v>
+        <v>-4.800828487715472</v>
       </c>
       <c r="X44" t="n">
-        <v>3.20869417912641</v>
+        <v>3.208694179126411</v>
       </c>
       <c r="Y44" t="n">
         <v>0.0965251354987447</v>
       </c>
       <c r="Z44" t="n">
-        <v>8.466966945027913</v>
+        <v>8.466966945027915</v>
       </c>
       <c r="AA44" t="n">
         <v>1.480117606964709</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.40686085985721</v>
+        <v>10.40686089567452</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.005497672655034314</v>
+        <v>0.005497672556578403</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-0.04937993362545967</v>
+        <v>-4.093155384063721</v>
       </c>
       <c r="AF44" t="n">
-        <v>13.1657829284668</v>
+        <v>8.98106575012207</v>
       </c>
     </row>
     <row r="45">
@@ -4958,7 +4958,7 @@
         <v>213.1614044856885</v>
       </c>
       <c r="W45" t="n">
-        <v>-5.36730004916967</v>
+        <v>-5.367300049169668</v>
       </c>
       <c r="X45" t="n">
         <v>3.649523120293471</v>
@@ -4967,16 +4967,16 @@
         <v>0.1018977667132576</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.3607683901506</v>
+        <v>8.360768390150598</v>
       </c>
       <c r="AA45" t="n">
         <v>1.523919880415215</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.0217761689072</v>
+        <v>10.02177620465064</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.006664981610609688</v>
+        <v>0.00666498149149497</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>0.2064536064863205</v>
+        <v>-4.02699613571167</v>
       </c>
       <c r="AF45" t="n">
-        <v>13.33654594421387</v>
+        <v>9.192439079284668</v>
       </c>
     </row>
     <row r="46">
@@ -5049,34 +5049,34 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03774512712960616</v>
+        <v>0.03774512712960618</v>
       </c>
       <c r="U46" t="n">
         <v>1864.986554005233</v>
       </c>
       <c r="V46" t="n">
-        <v>228.8206401150541</v>
+        <v>228.820640115054</v>
       </c>
       <c r="W46" t="n">
-        <v>-6.533251677848141</v>
+        <v>-6.533251677848139</v>
       </c>
       <c r="X46" t="n">
-        <v>4.375147715580695</v>
+        <v>4.375147715580694</v>
       </c>
       <c r="Y46" t="n">
         <v>0.1115694150144273</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.22508757524284</v>
+        <v>8.225087575242839</v>
       </c>
       <c r="AA46" t="n">
         <v>1.611128225553049</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.815023748224533</v>
+        <v>9.815023773402388</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.007390854850072404</v>
+        <v>0.007390854757029497</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>0.4850875735282898</v>
+        <v>-3.844538688659668</v>
       </c>
       <c r="AF46" t="n">
-        <v>13.56061363220215</v>
+        <v>9.526951789855957</v>
       </c>
     </row>
     <row r="47">
@@ -5158,7 +5158,7 @@
         <v>244.2319599421378</v>
       </c>
       <c r="W47" t="n">
-        <v>-8.024936354289265</v>
+        <v>-8.024936354289267</v>
       </c>
       <c r="X47" t="n">
         <v>5.108179535392596</v>
@@ -5173,10 +5173,10 @@
         <v>1.709770449615942</v>
       </c>
       <c r="AB47" t="n">
-        <v>10.38900916811737</v>
+        <v>10.38900918640791</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.005546963688626727</v>
+        <v>0.005546963637898306</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>0.9557980298995972</v>
+        <v>-3.56620192527771</v>
       </c>
       <c r="AF47" t="n">
-        <v>13.66915321350098</v>
+        <v>9.90263843536377</v>
       </c>
     </row>
     <row r="48">
@@ -5255,28 +5255,28 @@
         <v>1897.866015794312</v>
       </c>
       <c r="V48" t="n">
-        <v>263.3428581176035</v>
+        <v>263.3428581176036</v>
       </c>
       <c r="W48" t="n">
         <v>-10.18430042650438</v>
       </c>
       <c r="X48" t="n">
-        <v>5.978418731174593</v>
+        <v>5.978418731174595</v>
       </c>
       <c r="Y48" t="n">
         <v>0.1372934475010165</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.848168989507926</v>
+        <v>7.848168989507927</v>
       </c>
       <c r="AA48" t="n">
         <v>1.849931607495227</v>
       </c>
       <c r="AB48" t="n">
-        <v>10.77854221898851</v>
+        <v>10.77854223191699</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.004565299726927208</v>
+        <v>0.004565299697416036</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>1.290511965751648</v>
+        <v>-3.333061218261719</v>
       </c>
       <c r="AF48" t="n">
-        <v>13.66112995147705</v>
+        <v>10.1428804397583</v>
       </c>
     </row>
     <row r="49">
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.06038257678424405</v>
+        <v>0.06038257678424401</v>
       </c>
       <c r="U49" t="n">
         <v>1911.895943236241</v>
@@ -5361,22 +5361,22 @@
         <v>-12.19586695638432</v>
       </c>
       <c r="X49" t="n">
-        <v>6.628266439494641</v>
+        <v>6.628266439494642</v>
       </c>
       <c r="Y49" t="n">
         <v>0.1491778924153696</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.621670965023037</v>
+        <v>7.621670965023038</v>
       </c>
       <c r="AA49" t="n">
         <v>1.957039338609674</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.92245037470297</v>
+        <v>12.9224503855431</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.001562879716447529</v>
+        <v>0.001562879707976639</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -5384,10 +5384,10 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>1.466911911964417</v>
+        <v>-3.193026781082153</v>
       </c>
       <c r="AF49" t="n">
-        <v>13.70650577545166</v>
+        <v>10.34234809875488</v>
       </c>
     </row>
     <row r="50">
@@ -5449,16 +5449,16 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.01650675275345272</v>
+        <v>0.01650675275345274</v>
       </c>
       <c r="U50" t="n">
-        <v>1802.780645478129</v>
+        <v>1802.78064547813</v>
       </c>
       <c r="V50" t="n">
-        <v>141.3045690310866</v>
+        <v>141.3045690310867</v>
       </c>
       <c r="W50" t="n">
-        <v>-3.350434456507964</v>
+        <v>-3.350434456507965</v>
       </c>
       <c r="X50" t="n">
         <v>2.142422444745051</v>
@@ -5467,16 +5467,16 @@
         <v>0.07229919356232063</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.770975246959416</v>
+        <v>8.770975246959415</v>
       </c>
       <c r="AA50" t="n">
         <v>1.275115202946909</v>
       </c>
       <c r="AB50" t="n">
-        <v>17.46343650640223</v>
+        <v>17.46343655956063</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.000161384917701568</v>
+        <v>0.0001613849134121104</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>-0.496871143579483</v>
+        <v>-4.369452953338623</v>
       </c>
       <c r="AF50" t="n">
-        <v>12.97883415222168</v>
+        <v>8.480545997619629</v>
       </c>
     </row>
     <row r="51">
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01848949497671527</v>
+        <v>0.01848949497671528</v>
       </c>
       <c r="U51" t="n">
         <v>1813.793750480788</v>
@@ -5567,16 +5567,16 @@
         <v>0.07679224333612204</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.641966246426012</v>
+        <v>8.64196624642601</v>
       </c>
       <c r="AA51" t="n">
         <v>1.299463027721608</v>
       </c>
       <c r="AB51" t="n">
-        <v>15.73927831807769</v>
+        <v>15.73927836317791</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0003821722407211237</v>
+        <v>0.0003821722321031285</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>-0.4480118155479431</v>
+        <v>-4.454921245574951</v>
       </c>
       <c r="AF51" t="n">
-        <v>13.22307300567627</v>
+        <v>8.703372955322266</v>
       </c>
     </row>
     <row r="52">
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0209307468106094</v>
+        <v>0.02093074681060939</v>
       </c>
       <c r="U52" t="n">
         <v>1819.810792892937</v>
@@ -5667,16 +5667,16 @@
         <v>0.07998154867036784</v>
       </c>
       <c r="Z52" t="n">
-        <v>8.558739521406242</v>
+        <v>8.558739521406244</v>
       </c>
       <c r="AA52" t="n">
         <v>1.321868675660055</v>
       </c>
       <c r="AB52" t="n">
-        <v>15.42564539898916</v>
+        <v>15.42564544598437</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0004470577846783508</v>
+        <v>0.0004470577741735315</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>-0.4339388608932495</v>
+        <v>-4.491550922393799</v>
       </c>
       <c r="AF52" t="n">
-        <v>13.35095119476318</v>
+        <v>8.842866897583008</v>
       </c>
     </row>
     <row r="53">
@@ -5749,34 +5749,34 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02613434287937933</v>
+        <v>0.02613434287937934</v>
       </c>
       <c r="U53" t="n">
-        <v>1831.477901479314</v>
+        <v>1831.477901479313</v>
       </c>
       <c r="V53" t="n">
         <v>182.6578015993563</v>
       </c>
       <c r="W53" t="n">
-        <v>-4.267143899904625</v>
+        <v>-4.267143899904623</v>
       </c>
       <c r="X53" t="n">
-        <v>3.037407874301899</v>
+        <v>3.037407874301898</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.08755231730496202</v>
+        <v>0.087552317304962</v>
       </c>
       <c r="Z53" t="n">
-        <v>8.448512326713379</v>
+        <v>8.448512326713377</v>
       </c>
       <c r="AA53" t="n">
         <v>1.373272575262313</v>
       </c>
       <c r="AB53" t="n">
-        <v>14.8641178888201</v>
+        <v>14.86411793750634</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0005919674282688359</v>
+        <v>0.0005919674138584741</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -5784,10 +5784,10 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-0.2797070443630219</v>
+        <v>-4.412399291992188</v>
       </c>
       <c r="AF53" t="n">
-        <v>13.58217811584473</v>
+        <v>9.020401000976562</v>
       </c>
     </row>
     <row r="54">
@@ -5858,7 +5858,7 @@
         <v>194.6042654912872</v>
       </c>
       <c r="W54" t="n">
-        <v>-5.013693058505861</v>
+        <v>-5.013693058505862</v>
       </c>
       <c r="X54" t="n">
         <v>3.590387282908146</v>
@@ -5867,16 +5867,16 @@
         <v>0.09506810679981141</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.3373602001035</v>
+        <v>8.337360200103499</v>
       </c>
       <c r="AA54" t="n">
         <v>1.439120569864712</v>
       </c>
       <c r="AB54" t="n">
-        <v>14.62492049100213</v>
+        <v>14.62492052487045</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.000667173620380046</v>
+        <v>0.0006671736090819724</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>0.05165011808276176</v>
+        <v>-4.384419918060303</v>
       </c>
       <c r="AF54" t="n">
-        <v>13.73479270935059</v>
+        <v>9.339174270629883</v>
       </c>
     </row>
     <row r="55">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03697844851397943</v>
+        <v>0.03697844851397947</v>
       </c>
       <c r="U55" t="n">
         <v>1852.438872481081</v>
@@ -5973,10 +5973,10 @@
         <v>1.521481844261621</v>
       </c>
       <c r="AB55" t="n">
-        <v>14.17624049521409</v>
+        <v>14.17624053064918</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.00083496541961392</v>
+        <v>0.0008349654048203092</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -5984,10 +5984,10 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>0.3315654695034027</v>
+        <v>-4.156482696533203</v>
       </c>
       <c r="AF55" t="n">
-        <v>13.75939559936523</v>
+        <v>9.579233169555664</v>
       </c>
     </row>
     <row r="56">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.04386412301033655</v>
+        <v>0.04386412301033653</v>
       </c>
       <c r="U56" t="n">
         <v>1861.438762891978</v>
@@ -6070,13 +6070,13 @@
         <v>8.085637514775369</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.621859413550103</v>
+        <v>1.621859413550102</v>
       </c>
       <c r="AB56" t="n">
-        <v>14.51495288838573</v>
+        <v>14.51495291878097</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.0007048846086705751</v>
+        <v>0.0007048845979580332</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>0.6748580932617188</v>
+        <v>-3.982114553451538</v>
       </c>
       <c r="AF56" t="n">
-        <v>13.95031356811523</v>
+        <v>9.969481468200684</v>
       </c>
     </row>
     <row r="57">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.05056947647223293</v>
+        <v>0.05056947647223296</v>
       </c>
       <c r="U57" t="n">
         <v>1878.032354328183</v>
@@ -6158,7 +6158,7 @@
         <v>238.9294845076311</v>
       </c>
       <c r="W57" t="n">
-        <v>-8.939197736900102</v>
+        <v>-8.9391977369001</v>
       </c>
       <c r="X57" t="n">
         <v>5.441441972472609</v>
@@ -6173,10 +6173,10 @@
         <v>1.727016787533407</v>
       </c>
       <c r="AB57" t="n">
-        <v>14.99902266124848</v>
+        <v>14.99902268319335</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.0005533547115901261</v>
+        <v>0.0005533547055185384</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>0.932310163974762</v>
+        <v>-3.713976144790649</v>
       </c>
       <c r="AF57" t="n">
-        <v>13.94948577880859</v>
+        <v>10.01080131530762</v>
       </c>
     </row>
     <row r="58">
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0.06033155653299954</v>
+        <v>0.06033155653299953</v>
       </c>
       <c r="U58" t="n">
         <v>1893.132140490695</v>
@@ -6261,10 +6261,10 @@
         <v>-11.95489947297237</v>
       </c>
       <c r="X58" t="n">
-        <v>6.429520058875787</v>
+        <v>6.429520058875785</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.1429482959700768</v>
+        <v>0.1429482959700767</v>
       </c>
       <c r="Z58" t="n">
         <v>7.666832004451789</v>
@@ -6273,10 +6273,10 @@
         <v>1.911541131955564</v>
       </c>
       <c r="AB58" t="n">
-        <v>15.97002575033492</v>
+        <v>15.97002576850977</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.0003405281118894488</v>
+        <v>0.0003405281087949241</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -6284,10 +6284,10 @@
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>1.160614132881165</v>
+        <v>-3.414813041687012</v>
       </c>
       <c r="AF58" t="n">
-        <v>13.75125598907471</v>
+        <v>10.18656349182129</v>
       </c>
     </row>
     <row r="59">
@@ -6373,10 +6373,10 @@
         <v>1.203316242282515</v>
       </c>
       <c r="AB59" t="n">
-        <v>21.94695367104881</v>
+        <v>21.94695372484373</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.715060967322213e-05</v>
+        <v>1.715060921192446e-05</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>-0.4740423560142517</v>
+        <v>-4.701575756072998</v>
       </c>
       <c r="AF59" t="n">
-        <v>13.45454883575439</v>
+        <v>8.803384780883789</v>
       </c>
     </row>
     <row r="60">
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0.02130045397373643</v>
+        <v>0.02130045397373641</v>
       </c>
       <c r="U60" t="n">
-        <v>1815.769244665607</v>
+        <v>1815.769244665606</v>
       </c>
       <c r="V60" t="n">
         <v>151.3022445361542</v>
@@ -6467,16 +6467,16 @@
         <v>0.07376622362674641</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.497920215669927</v>
+        <v>8.497920215669925</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.229763406140412</v>
+        <v>1.229763406140413</v>
       </c>
       <c r="AB60" t="n">
-        <v>22.08559919552249</v>
+        <v>22.0855992449287</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.600195592699194e-05</v>
+        <v>1.600195553164152e-05</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>-0.3924769759178162</v>
+        <v>-4.657570362091064</v>
       </c>
       <c r="AF60" t="n">
-        <v>13.57353115081787</v>
+        <v>9.010920524597168</v>
       </c>
     </row>
     <row r="61">
@@ -6558,7 +6558,7 @@
         <v>162.630477938699</v>
       </c>
       <c r="W61" t="n">
-        <v>-3.626491216119733</v>
+        <v>-3.626491216119732</v>
       </c>
       <c r="X61" t="n">
         <v>2.699405705324574</v>
@@ -6573,10 +6573,10 @@
         <v>1.262040669588086</v>
       </c>
       <c r="AB61" t="n">
-        <v>22.54412227081677</v>
+        <v>22.54412232062873</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.272348403535961e-05</v>
+        <v>1.272348371839094e-05</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>-0.2819855511188507</v>
+        <v>-4.732857227325439</v>
       </c>
       <c r="AF61" t="n">
-        <v>13.65933799743652</v>
+        <v>8.934501647949219</v>
       </c>
     </row>
     <row r="62">
@@ -6652,31 +6652,31 @@
         <v>0.02932879966732232</v>
       </c>
       <c r="U62" t="n">
-        <v>1831.956111086356</v>
+        <v>1831.956111086357</v>
       </c>
       <c r="V62" t="n">
         <v>175.8022254655756</v>
       </c>
       <c r="W62" t="n">
-        <v>-4.296603370469127</v>
+        <v>-4.296603370469128</v>
       </c>
       <c r="X62" t="n">
         <v>3.233605779627207</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.08625357428706133</v>
+        <v>0.08625357428706135</v>
       </c>
       <c r="Z62" t="n">
         <v>8.326103638935868</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.326537735811674</v>
+        <v>1.326537735811675</v>
       </c>
       <c r="AB62" t="n">
-        <v>21.93479351693005</v>
+        <v>21.93479357339652</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.725520435125194e-05</v>
+        <v>1.725520386408608e-05</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>-0.09900243580341339</v>
+        <v>-4.538889408111572</v>
       </c>
       <c r="AF62" t="n">
-        <v>13.817458152771</v>
+        <v>9.322543144226074</v>
       </c>
     </row>
     <row r="63">
@@ -6761,7 +6761,7 @@
         <v>-5.15969551143198</v>
       </c>
       <c r="X63" t="n">
-        <v>3.770269184798586</v>
+        <v>3.770269184798587</v>
       </c>
       <c r="Y63" t="n">
         <v>0.09500510175245287</v>
@@ -6773,10 +6773,10 @@
         <v>1.407001033805207</v>
       </c>
       <c r="AB63" t="n">
-        <v>20.8710296853584</v>
+        <v>20.87102972571743</v>
       </c>
       <c r="AC63" t="n">
-        <v>2.937064526820077e-05</v>
+        <v>2.93706446754527e-05</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>0.1806975305080414</v>
+        <v>-4.324916839599609</v>
       </c>
       <c r="AF63" t="n">
-        <v>14.01486873626709</v>
+        <v>9.656518936157227</v>
       </c>
     </row>
     <row r="64">
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.04226224807061562</v>
+        <v>0.0422622480706156</v>
       </c>
       <c r="U64" t="n">
         <v>1850.859046094969</v>
@@ -6858,7 +6858,7 @@
         <v>202.3200598468264</v>
       </c>
       <c r="W64" t="n">
-        <v>-6.655098692012343</v>
+        <v>-6.655098692012342</v>
       </c>
       <c r="X64" t="n">
         <v>4.517802087094323</v>
@@ -6873,10 +6873,10 @@
         <v>1.525445472123222</v>
       </c>
       <c r="AB64" t="n">
-        <v>20.46430818751905</v>
+        <v>20.46430823179419</v>
       </c>
       <c r="AC64" t="n">
-        <v>3.599415140209672e-05</v>
+        <v>3.599415060528965e-05</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>0.4930383861064911</v>
+        <v>-4.235437393188477</v>
       </c>
       <c r="AF64" t="n">
-        <v>14.07796573638916</v>
+        <v>9.844819068908691</v>
       </c>
     </row>
     <row r="65">
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0.05021896804764986</v>
+        <v>0.05021896804764987</v>
       </c>
       <c r="U65" t="n">
         <v>1865.499561822273</v>
@@ -6958,7 +6958,7 @@
         <v>221.858194701114</v>
       </c>
       <c r="W65" t="n">
-        <v>-8.56490055737344</v>
+        <v>-8.564900557373438</v>
       </c>
       <c r="X65" t="n">
         <v>5.247073115973366</v>
@@ -6973,10 +6973,10 @@
         <v>1.667377773524082</v>
       </c>
       <c r="AB65" t="n">
-        <v>19.69151635816683</v>
+        <v>19.69151638840882</v>
       </c>
       <c r="AC65" t="n">
-        <v>5.29714123751468e-05</v>
+        <v>5.297141157412089e-05</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="AE65" t="n">
-        <v>0.7671411037445068</v>
+        <v>-3.867720127105713</v>
       </c>
       <c r="AF65" t="n">
-        <v>13.90145492553711</v>
+        <v>10.06713581085205</v>
       </c>
     </row>
     <row r="66">
@@ -7067,16 +7067,16 @@
         <v>0.06650261904096777</v>
       </c>
       <c r="Z66" t="n">
-        <v>8.404495746911222</v>
+        <v>8.40449574691122</v>
       </c>
       <c r="AA66" t="n">
         <v>1.124538934076214</v>
       </c>
       <c r="AB66" t="n">
-        <v>34.12814366764467</v>
+        <v>34.12814373456067</v>
       </c>
       <c r="AC66" t="n">
-        <v>3.883003341087488e-08</v>
+        <v>3.883003207860725e-08</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -7084,10 +7084,10 @@
         </is>
       </c>
       <c r="AE66" t="n">
-        <v>-0.3564522564411163</v>
+        <v>-4.687250137329102</v>
       </c>
       <c r="AF66" t="n">
-        <v>13.69062519073486</v>
+        <v>9.085575103759766</v>
       </c>
     </row>
     <row r="67">
@@ -7149,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0.02251848971573795</v>
+        <v>0.02251848971573794</v>
       </c>
       <c r="U67" t="n">
-        <v>1817.7189607482</v>
+        <v>1817.718960748199</v>
       </c>
       <c r="V67" t="n">
         <v>139.2109885145891</v>
@@ -7161,22 +7161,22 @@
         <v>-3.060644452700787</v>
       </c>
       <c r="X67" t="n">
-        <v>2.426542647739843</v>
+        <v>2.426542647739842</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.07007314791346539</v>
+        <v>0.07007314791346538</v>
       </c>
       <c r="Z67" t="n">
-        <v>8.354293452070607</v>
+        <v>8.354293452070605</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.149923918218328</v>
+        <v>1.149923918218327</v>
       </c>
       <c r="AB67" t="n">
-        <v>34.44798849721022</v>
+        <v>34.44798856107501</v>
       </c>
       <c r="AC67" t="n">
-        <v>3.309133911333362e-08</v>
+        <v>3.309133800311059e-08</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="AE67" t="n">
-        <v>-0.2920657396316528</v>
+        <v>-4.643197536468506</v>
       </c>
       <c r="AF67" t="n">
-        <v>13.78672313690186</v>
+        <v>9.259225845336914</v>
       </c>
     </row>
     <row r="68">
@@ -7267,16 +7267,16 @@
         <v>0.07966612253987757</v>
       </c>
       <c r="Z68" t="n">
-        <v>8.264353349839951</v>
+        <v>8.264353349839952</v>
       </c>
       <c r="AA68" t="n">
         <v>1.229650020650664</v>
       </c>
       <c r="AB68" t="n">
-        <v>32.59076555351167</v>
+        <v>32.59076561584823</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.375392712700602e-08</v>
+        <v>8.375392446247076e-08</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>-0.1147878542542458</v>
+        <v>-4.593428611755371</v>
       </c>
       <c r="AF68" t="n">
-        <v>13.94562816619873</v>
+        <v>9.391172409057617</v>
       </c>
     </row>
     <row r="69">
@@ -7370,13 +7370,13 @@
         <v>8.209032957442462</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.293647358636753</v>
+        <v>1.293647358636754</v>
       </c>
       <c r="AB69" t="n">
-        <v>30.91008884608936</v>
+        <v>30.91008888938195</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.940704842384733e-07</v>
+        <v>1.940704800196258e-07</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -7384,10 +7384,10 @@
         </is>
       </c>
       <c r="AE69" t="n">
-        <v>0.00483214482665062</v>
+        <v>-4.444321155548096</v>
       </c>
       <c r="AF69" t="n">
-        <v>13.98781108856201</v>
+        <v>9.567353248596191</v>
       </c>
     </row>
     <row r="70">
@@ -7452,13 +7452,13 @@
         <v>0.03980131080266931</v>
       </c>
       <c r="U70" t="n">
-        <v>1844.869218212894</v>
+        <v>1844.869218212895</v>
       </c>
       <c r="V70" t="n">
         <v>192.1751435798204</v>
       </c>
       <c r="W70" t="n">
-        <v>-5.701688642009427</v>
+        <v>-5.701688642009428</v>
       </c>
       <c r="X70" t="n">
         <v>4.064608656287339</v>
@@ -7467,16 +7467,16 @@
         <v>0.09862805660520312</v>
       </c>
       <c r="Z70" t="n">
-        <v>8.101491389254228</v>
+        <v>8.10149138925423</v>
       </c>
       <c r="AA70" t="n">
         <v>1.41087388275249</v>
       </c>
       <c r="AB70" t="n">
-        <v>28.71527256983468</v>
+        <v>28.71527261659721</v>
       </c>
       <c r="AC70" t="n">
-        <v>5.815108043982775e-07</v>
+        <v>5.815107908535566e-07</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="AE70" t="n">
-        <v>0.2933955192565918</v>
+        <v>-4.357788562774658</v>
       </c>
       <c r="AF70" t="n">
-        <v>14.04801654815674</v>
+        <v>9.757320404052734</v>
       </c>
     </row>
   </sheetData>

--- a/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiMoTi data
to hardness dataset.xlsx
+++ b/02_Dataset_EDA_Feature_UMAP_Mahalanobis/"distance" from new FeCrNiMoTi data
to hardness dataset.xlsx
@@ -673,10 +673,10 @@
         <v>1.882782738202394</v>
       </c>
       <c r="AB2" t="n">
-        <v>27.16288803153724</v>
+        <v>27.16288804759034</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.263728580669365e-06</v>
+        <v>1.263728570566336e-06</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-2.53023624420166</v>
+        <v>2.17266321182251</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.149934768676758</v>
+        <v>6.01155424118042</v>
       </c>
     </row>
     <row r="3">
@@ -773,10 +773,10 @@
         <v>1.882863745105841</v>
       </c>
       <c r="AB3" t="n">
-        <v>25.12998731017126</v>
+        <v>25.12998732675665</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.492147592099037e-06</v>
+        <v>3.492147563233239e-06</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-2.52933931350708</v>
+        <v>2.262024402618408</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.348854064941406</v>
+        <v>6.16260814666748</v>
       </c>
     </row>
     <row r="4">
@@ -873,10 +873,10 @@
         <v>1.88771008374703</v>
       </c>
       <c r="AB4" t="n">
-        <v>22.50042302268373</v>
+        <v>22.50042303915198</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.300454675401408e-05</v>
+        <v>1.300454664698858e-05</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>-2.454806804656982</v>
+        <v>2.401015520095825</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.61860179901123</v>
+        <v>6.092511177062988</v>
       </c>
     </row>
     <row r="5">
@@ -973,10 +973,10 @@
         <v>1.888592288927109</v>
       </c>
       <c r="AB5" t="n">
-        <v>20.25822335607245</v>
+        <v>20.25822337752354</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.990089999583724e-05</v>
+        <v>3.990089956784626e-05</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-2.456196308135986</v>
+        <v>2.52386474609375</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.759028434753418</v>
+        <v>6.271859169006348</v>
       </c>
     </row>
     <row r="6">
@@ -1073,10 +1073,10 @@
         <v>1.906034934854781</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.08894480371958</v>
+        <v>18.0889448159358</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.000118041724108342</v>
+        <v>0.0001180417233873632</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>-2.442868709564209</v>
+        <v>2.728684663772583</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.015795707702637</v>
+        <v>6.449848175048828</v>
       </c>
     </row>
     <row r="7">
@@ -1173,10 +1173,10 @@
         <v>1.794908847638016</v>
       </c>
       <c r="AB7" t="n">
-        <v>20.98415451930747</v>
+        <v>20.9841545353461</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.775548000377714e-05</v>
+        <v>2.775547978117743e-05</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-2.953606605529785</v>
+        <v>2.149840831756592</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.008749008178711</v>
+        <v>5.65466833114624</v>
       </c>
     </row>
     <row r="8">
@@ -1273,10 +1273,10 @@
         <v>1.81549624662442</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.95484260238864</v>
+        <v>18.95484262431203</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.656111086495887e-05</v>
+        <v>7.656111002574129e-05</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>-2.833974838256836</v>
+        <v>2.400177478790283</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.272379875183105</v>
+        <v>5.719884395599365</v>
       </c>
     </row>
     <row r="9">
@@ -1373,10 +1373,10 @@
         <v>1.841990243468286</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.06064105953197</v>
+        <v>16.06064107639279</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0003254438777506863</v>
+        <v>0.0003254438750071031</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-2.772046327590942</v>
+        <v>2.606870174407959</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.514437675476074</v>
+        <v>5.96914529800415</v>
       </c>
     </row>
     <row r="10">
@@ -1473,10 +1473,10 @@
         <v>1.858662341015401</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.19234061653539</v>
+        <v>14.19234062996603</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0008282708792169968</v>
+        <v>0.0008282708736548905</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-2.780965328216553</v>
+        <v>2.656509876251221</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.672751426696777</v>
+        <v>6.03134822845459</v>
       </c>
     </row>
     <row r="11">
@@ -1573,10 +1573,10 @@
         <v>1.876353876773989</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.65073627382376</v>
+        <v>12.65073628840253</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.001790307051101836</v>
+        <v>0.001790307038051497</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>-2.717265844345093</v>
+        <v>2.819504976272583</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.95460319519043</v>
+        <v>6.277555465698242</v>
       </c>
     </row>
     <row r="12">
@@ -1673,10 +1673,10 @@
         <v>1.913479908641325</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.25373486889068</v>
+        <v>12.25373488065375</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.00218340993377808</v>
+        <v>0.002183409920936352</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-2.596562385559082</v>
+        <v>2.905865430831909</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.276708602905273</v>
+        <v>6.632551193237305</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>1.953826742856776</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.32037621036788</v>
+        <v>12.32037621843238</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.002111855983309652</v>
+        <v>0.00211185597479413</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>-2.630861520767212</v>
+        <v>3.119555234909058</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.638986587524414</v>
+        <v>6.843473434448242</v>
       </c>
     </row>
     <row r="14">
@@ -1873,10 +1873,10 @@
         <v>1.642333751820618</v>
       </c>
       <c r="AB14" t="n">
-        <v>25.08374098746853</v>
+        <v>25.08374099660083</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.57383791382837e-06</v>
+        <v>3.573837897508092e-06</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-3.604172468185425</v>
+        <v>2.133790493011475</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.480281352996826</v>
+        <v>5.134836196899414</v>
       </c>
     </row>
     <row r="15">
@@ -1973,10 +1973,10 @@
         <v>1.698161567663727</v>
       </c>
       <c r="AB15" t="n">
-        <v>18.53102329972461</v>
+        <v>18.53102330796985</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.463230498607533e-05</v>
+        <v>9.463230459594296e-05</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-3.441515207290649</v>
+        <v>2.301736354827881</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.926401615142822</v>
+        <v>5.242356777191162</v>
       </c>
     </row>
     <row r="16">
@@ -2073,10 +2073,10 @@
         <v>1.757842370440394</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.28960133425612</v>
+        <v>13.28960134234261</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.00130076767817866</v>
+        <v>0.001300767672919312</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-3.393058061599731</v>
+        <v>2.779004573822021</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.329090118408203</v>
+        <v>5.40443754196167</v>
       </c>
     </row>
     <row r="17">
@@ -2173,10 +2173,10 @@
         <v>1.774013157089227</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.48735232722392</v>
+        <v>11.48735233996527</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.003202971957035117</v>
+        <v>0.003202971936629995</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-3.203211069107056</v>
+        <v>2.645986795425415</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.497940063476562</v>
+        <v>5.687008380889893</v>
       </c>
     </row>
     <row r="18">
@@ -2273,10 +2273,10 @@
         <v>1.796536213617284</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.45119549850536</v>
+        <v>9.451195502742435</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.008865413031773683</v>
+        <v>0.00886541301299193</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>-3.054608583450317</v>
+        <v>2.881319522857666</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.783082962036133</v>
+        <v>5.892768859863281</v>
       </c>
     </row>
     <row r="19">
@@ -2373,10 +2373,10 @@
         <v>1.849247090506852</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.479326533673236</v>
+        <v>8.479326541128106</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01441244417401488</v>
+        <v>0.01441244412029352</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-2.938765525817871</v>
+        <v>3.062301635742188</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.168996810913086</v>
+        <v>6.280838489532471</v>
       </c>
     </row>
     <row r="20">
@@ -2473,10 +2473,10 @@
         <v>1.889766506706896</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.530488827492368</v>
+        <v>8.530488831161325</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01404843308324077</v>
+        <v>0.01404843305746917</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-2.773268222808838</v>
+        <v>3.230054616928101</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.560567855834961</v>
+        <v>6.692066192626953</v>
       </c>
     </row>
     <row r="21">
@@ -2573,10 +2573,10 @@
         <v>1.958545681888618</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.626376904235332</v>
+        <v>9.626376907117281</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.008121922009684646</v>
+        <v>0.008121921997981119</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-2.666579246520996</v>
+        <v>3.312545537948608</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.882621765136719</v>
+        <v>6.985183715820312</v>
       </c>
     </row>
     <row r="22">
@@ -2673,10 +2673,10 @@
         <v>2.03318915807749</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.83943366361845</v>
+        <v>12.83943366206022</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.001629117483730069</v>
+        <v>0.001629117484999387</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-2.782275199890137</v>
+        <v>3.580575704574585</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.19125556945801</v>
+        <v>7.129753112792969</v>
       </c>
     </row>
     <row r="23">
@@ -2773,10 +2773,10 @@
         <v>1.535777422704193</v>
       </c>
       <c r="AB23" t="n">
-        <v>23.4919944048475</v>
+        <v>23.49199440103875</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.920967484809083e-06</v>
+        <v>7.920967499908116e-06</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-3.823957920074463</v>
+        <v>2.55609655380249</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.613787651062012</v>
+        <v>5.059582233428955</v>
       </c>
     </row>
     <row r="24">
@@ -2873,10 +2873,10 @@
         <v>1.5836150074223</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.10786259361591</v>
+        <v>17.10786259006947</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0001927857099969232</v>
+        <v>0.0001927857103387609</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-3.763815879821777</v>
+        <v>2.671896457672119</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.884773254394531</v>
+        <v>5.031870365142822</v>
       </c>
     </row>
     <row r="25">
@@ -2973,10 +2973,10 @@
         <v>1.636501504486467</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.17661425828082</v>
+        <v>12.17661425759207</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.002269247207501546</v>
+        <v>0.002269247208283032</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-3.748501300811768</v>
+        <v>2.687152862548828</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.127946853637695</v>
+        <v>5.112345218658447</v>
       </c>
     </row>
     <row r="26">
@@ -3073,10 +3073,10 @@
         <v>1.675082869941759</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.404543488532561</v>
+        <v>9.404543484323755</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.009074638409880764</v>
+        <v>0.009074638428977488</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-3.764271974563599</v>
+        <v>2.873922348022461</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.29784107208252</v>
+        <v>5.238391399383545</v>
       </c>
     </row>
     <row r="27">
@@ -3173,10 +3173,10 @@
         <v>1.715493650301267</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.549824691737552</v>
+        <v>7.549824684860257</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.02293910126080023</v>
+        <v>0.02293910133967969</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-3.484197854995728</v>
+        <v>3.17240834236145</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.926033973693848</v>
+        <v>5.770833015441895</v>
       </c>
     </row>
     <row r="28">
@@ -3273,10 +3273,10 @@
         <v>1.788739041612613</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.904061782539414</v>
+        <v>6.904061780739121</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0316812298657454</v>
+        <v>0.03168122989426314</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-3.321592092514038</v>
+        <v>3.439621686935425</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.35911750793457</v>
+        <v>6.1625657081604</v>
       </c>
     </row>
     <row r="29">
@@ -3373,10 +3373,10 @@
         <v>1.850493355719852</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.136372057769314</v>
+        <v>7.136372054400284</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02820697393692084</v>
+        <v>0.02820697398443595</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>-3.027654409408569</v>
+        <v>3.460787773132324</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.692914009094238</v>
+        <v>6.677536010742188</v>
       </c>
     </row>
     <row r="30">
@@ -3473,10 +3473,10 @@
         <v>1.941272622660873</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.687525809001716</v>
+        <v>8.687525801772399</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01298756517216493</v>
+        <v>0.0129875652191106</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>-2.800806999206543</v>
+        <v>3.591811656951904</v>
       </c>
       <c r="AF30" t="n">
-        <v>10.03522491455078</v>
+        <v>6.987906932830811</v>
       </c>
     </row>
     <row r="31">
@@ -3573,10 +3573,10 @@
         <v>2.045982747978778</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.63449270460055</v>
+        <v>11.63449269756732</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.002975788145241132</v>
+        <v>0.002975788155705761</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>-2.870893955230713</v>
+        <v>3.774492979049683</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.33438014984131</v>
+        <v>7.208007335662842</v>
       </c>
     </row>
     <row r="32">
@@ -3673,10 +3673,10 @@
         <v>1.433340635221596</v>
       </c>
       <c r="AB32" t="n">
-        <v>21.69013718474858</v>
+        <v>21.69013717077402</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.950053625776604e-05</v>
+        <v>1.950053639399041e-05</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-4.006196975708008</v>
+        <v>2.998231172561646</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.813725471496582</v>
+        <v>4.997187614440918</v>
       </c>
     </row>
     <row r="33">
@@ -3773,10 +3773,10 @@
         <v>1.49184845250026</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.32203517705027</v>
+        <v>15.3220351635599</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0004708280577161439</v>
+        <v>0.0004708280608920479</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-3.966581344604492</v>
+        <v>3.113670825958252</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.164756774902344</v>
+        <v>4.988369941711426</v>
       </c>
     </row>
     <row r="34">
@@ -3873,10 +3873,10 @@
         <v>1.537891595222004</v>
       </c>
       <c r="AB34" t="n">
-        <v>11.21058083642842</v>
+        <v>11.21058081905238</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.003678352128661744</v>
+        <v>0.003678352160619291</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -3884,10 +3884,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-3.972800016403198</v>
+        <v>3.221651315689087</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.454370498657227</v>
+        <v>5.175657272338867</v>
       </c>
     </row>
     <row r="35">
@@ -3973,10 +3973,10 @@
         <v>1.578391418888722</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.994922017119723</v>
+        <v>8.994921998980134</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01113723802263344</v>
+        <v>0.01113723812364598</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-3.805603742599487</v>
+        <v>3.387543916702271</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.691231727600098</v>
+        <v>5.409714698791504</v>
       </c>
     </row>
     <row r="36">
@@ -4073,10 +4073,10 @@
         <v>1.646076820663437</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.589695256139494</v>
+        <v>7.589695238513221</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.02248633184150084</v>
+        <v>0.02248633203967598</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-3.665693283081055</v>
+        <v>3.560274600982666</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.106968879699707</v>
+        <v>5.728890419006348</v>
       </c>
     </row>
     <row r="37">
@@ -4173,10 +4173,10 @@
         <v>1.706887303940507</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.482550766452</v>
+        <v>7.482550757700241</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0237238268576524</v>
+        <v>0.02372382696146502</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-3.516692876815796</v>
+        <v>3.763417720794678</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.491969108581543</v>
+        <v>6.141497135162354</v>
       </c>
     </row>
     <row r="38">
@@ -4273,10 +4273,10 @@
         <v>1.793112124583807</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.750979727132226</v>
+        <v>7.750979713683767</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02074417356950098</v>
+        <v>0.02074417370898962</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-3.247647285461426</v>
+        <v>3.755874156951904</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.815587043762207</v>
+        <v>6.494069576263428</v>
       </c>
     </row>
     <row r="39">
@@ -4373,10 +4373,10 @@
         <v>1.891498966762572</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.845619720020215</v>
+        <v>8.845619704925543</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.01200046523922671</v>
+        <v>0.01200046532979826</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>-3.12256932258606</v>
+        <v>3.822630405426025</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.955873489379883</v>
+        <v>6.76807975769043</v>
       </c>
     </row>
     <row r="40">
@@ -4473,10 +4473,10 @@
         <v>2.030469900039257</v>
       </c>
       <c r="AB40" t="n">
-        <v>12.01846227670582</v>
+        <v>12.01846226109998</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.002455975760245255</v>
+        <v>0.002455975779409036</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>-3.060237169265747</v>
+        <v>3.893937110900879</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.3473596572876</v>
+        <v>6.991714000701904</v>
       </c>
     </row>
     <row r="41">
@@ -4573,10 +4573,10 @@
         <v>1.3515369856457</v>
       </c>
       <c r="AB41" t="n">
-        <v>18.11110488540098</v>
+        <v>18.11110485649575</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.000116741036129131</v>
+        <v>0.0001167410378163369</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-4.076447486877441</v>
+        <v>3.272864818572998</v>
       </c>
       <c r="AF41" t="n">
-        <v>8.082869529724121</v>
+        <v>5.054690837860107</v>
       </c>
     </row>
     <row r="42">
@@ -4673,10 +4673,10 @@
         <v>1.389207621495003</v>
       </c>
       <c r="AB42" t="n">
-        <v>14.20131213975773</v>
+        <v>14.20131210971228</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0008245637743140577</v>
+        <v>0.0008245637867012601</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -4684,10 +4684,10 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-4.202389717102051</v>
+        <v>3.546592712402344</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.37712574005127</v>
+        <v>5.057745933532715</v>
       </c>
     </row>
     <row r="43">
@@ -4773,10 +4773,10 @@
         <v>1.422324757136511</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.18487654459692</v>
+        <v>12.18487652516843</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.002259891959665361</v>
+        <v>0.002259891981618467</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-4.167500972747803</v>
+        <v>3.621646642684937</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.495481491088867</v>
+        <v>5.138691425323486</v>
       </c>
     </row>
     <row r="44">
@@ -4873,10 +4873,10 @@
         <v>1.480117606964709</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.40686089567452</v>
+        <v>10.40686087148101</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.005497672556578403</v>
+        <v>0.005497672623082317</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-4.093155384063721</v>
+        <v>3.852691888809204</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.98106575012207</v>
+        <v>5.393496513366699</v>
       </c>
     </row>
     <row r="45">
@@ -4973,10 +4973,10 @@
         <v>1.523919880415215</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.02177620465064</v>
+        <v>10.02177617556086</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.00666498149149497</v>
+        <v>0.006664981588436425</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-4.02699613571167</v>
+        <v>3.978915691375732</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.192439079284668</v>
+        <v>5.678436756134033</v>
       </c>
     </row>
     <row r="46">
@@ -5073,10 +5073,10 @@
         <v>1.611128225553049</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.815023773402388</v>
+        <v>9.815023754633067</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.007390854757029497</v>
+        <v>0.007390854826390125</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>-3.844538688659668</v>
+        <v>4.120884418487549</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.526951789855957</v>
+        <v>5.975300788879395</v>
       </c>
     </row>
     <row r="47">
@@ -5173,10 +5173,10 @@
         <v>1.709770449615942</v>
       </c>
       <c r="AB47" t="n">
-        <v>10.38900918640791</v>
+        <v>10.38900916006484</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.005546963637898306</v>
+        <v>0.005546963710960306</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>-3.56620192527771</v>
+        <v>4.108113765716553</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.90263843536377</v>
+        <v>6.427614212036133</v>
       </c>
     </row>
     <row r="48">
@@ -5273,10 +5273,10 @@
         <v>1.849931607495227</v>
       </c>
       <c r="AB48" t="n">
-        <v>10.77854223191699</v>
+        <v>10.77854221136515</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.004565299697416036</v>
+        <v>0.004565299744328621</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>-3.333061218261719</v>
+        <v>4.007191181182861</v>
       </c>
       <c r="AF48" t="n">
-        <v>10.1428804397583</v>
+        <v>6.762137889862061</v>
       </c>
     </row>
     <row r="49">
@@ -5373,10 +5373,10 @@
         <v>1.957039338609674</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.9224503855431</v>
+        <v>12.92245036453609</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.001562879707976639</v>
+        <v>0.001562879724392396</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -5384,10 +5384,10 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>-3.193026781082153</v>
+        <v>4.004144668579102</v>
       </c>
       <c r="AF49" t="n">
-        <v>10.34234809875488</v>
+        <v>6.957865238189697</v>
       </c>
     </row>
     <row r="50">
@@ -5473,10 +5473,10 @@
         <v>1.275115202946909</v>
       </c>
       <c r="AB50" t="n">
-        <v>17.46343655956063</v>
+        <v>17.46343652168439</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.0001613849134121104</v>
+        <v>0.0001613849164684433</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>-4.369452953338623</v>
+        <v>3.77337908744812</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.480545997619629</v>
+        <v>5.038180351257324</v>
       </c>
     </row>
     <row r="51">
@@ -5573,10 +5573,10 @@
         <v>1.299463027721608</v>
       </c>
       <c r="AB51" t="n">
-        <v>15.73927836317791</v>
+        <v>15.73927832678815</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0003821722321031285</v>
+        <v>0.0003821722390566773</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>-4.454921245574951</v>
+        <v>4.030261516571045</v>
       </c>
       <c r="AF51" t="n">
-        <v>8.703372955322266</v>
+        <v>5.115845680236816</v>
       </c>
     </row>
     <row r="52">
@@ -5673,10 +5673,10 @@
         <v>1.321868675660055</v>
       </c>
       <c r="AB52" t="n">
-        <v>15.42564544598437</v>
+        <v>15.42564540521257</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0004470577741735315</v>
+        <v>0.0004470577832872413</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>-4.491550922393799</v>
+        <v>4.128252029418945</v>
       </c>
       <c r="AF52" t="n">
-        <v>8.842866897583008</v>
+        <v>5.095830917358398</v>
       </c>
     </row>
     <row r="53">
@@ -5773,10 +5773,10 @@
         <v>1.373272575262313</v>
       </c>
       <c r="AB53" t="n">
-        <v>14.86411793750634</v>
+        <v>14.86411790263286</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0005919674138584741</v>
+        <v>0.0005919674241804396</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -5784,10 +5784,10 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-4.412399291992188</v>
+        <v>4.344599723815918</v>
       </c>
       <c r="AF53" t="n">
-        <v>9.020401000976562</v>
+        <v>5.256979465484619</v>
       </c>
     </row>
     <row r="54">
@@ -5873,10 +5873,10 @@
         <v>1.439120569864712</v>
       </c>
       <c r="AB54" t="n">
-        <v>14.62492052487045</v>
+        <v>14.62492049286846</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.0006671736090819724</v>
+        <v>0.0006671736197574329</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>-4.384419918060303</v>
+        <v>4.397573471069336</v>
       </c>
       <c r="AF54" t="n">
-        <v>9.339174270629883</v>
+        <v>5.589683055877686</v>
       </c>
     </row>
     <row r="55">
@@ -5973,10 +5973,10 @@
         <v>1.521481844261621</v>
       </c>
       <c r="AB55" t="n">
-        <v>14.17624053064918</v>
+        <v>14.17624049659472</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0008349654048203092</v>
+        <v>0.0008349654190374922</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -5984,10 +5984,10 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>-4.156482696533203</v>
+        <v>4.366486072540283</v>
       </c>
       <c r="AF55" t="n">
-        <v>9.579233169555664</v>
+        <v>5.878684520721436</v>
       </c>
     </row>
     <row r="56">
@@ -6073,10 +6073,10 @@
         <v>1.621859413550102</v>
       </c>
       <c r="AB56" t="n">
-        <v>14.51495291878097</v>
+        <v>14.51495288861705</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.0007048845979580332</v>
+        <v>0.0007048846085890847</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>-3.982114553451538</v>
+        <v>4.454396724700928</v>
       </c>
       <c r="AF56" t="n">
-        <v>9.969481468200684</v>
+        <v>6.22815990447998</v>
       </c>
     </row>
     <row r="57">
@@ -6173,10 +6173,10 @@
         <v>1.727016787533407</v>
       </c>
       <c r="AB57" t="n">
-        <v>14.99902268319335</v>
+        <v>14.99902265816707</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.0005533547055185384</v>
+        <v>0.0005533547124426663</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>-3.713976144790649</v>
+        <v>4.371802806854248</v>
       </c>
       <c r="AF57" t="n">
-        <v>10.01080131530762</v>
+        <v>6.471113204956055</v>
       </c>
     </row>
     <row r="58">
@@ -6273,10 +6273,10 @@
         <v>1.911541131955564</v>
       </c>
       <c r="AB58" t="n">
-        <v>15.97002576850977</v>
+        <v>15.9700257427457</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.0003405281087949241</v>
+        <v>0.0003405281131816373</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -6284,10 +6284,10 @@
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>-3.414813041687012</v>
+        <v>4.138594627380371</v>
       </c>
       <c r="AF58" t="n">
-        <v>10.18656349182129</v>
+        <v>6.667025089263916</v>
       </c>
     </row>
     <row r="59">
@@ -6373,10 +6373,10 @@
         <v>1.203316242282515</v>
       </c>
       <c r="AB59" t="n">
-        <v>21.94695372484373</v>
+        <v>21.94695369331638</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.715060921192446e-05</v>
+        <v>1.715060948226377e-05</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>-4.701575756072998</v>
+        <v>4.273524284362793</v>
       </c>
       <c r="AF59" t="n">
-        <v>8.803384780883789</v>
+        <v>5.072478771209717</v>
       </c>
     </row>
     <row r="60">
@@ -6473,10 +6473,10 @@
         <v>1.229763406140413</v>
       </c>
       <c r="AB60" t="n">
-        <v>22.0855992449287</v>
+        <v>22.08559920076116</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.600195553164152e-05</v>
+        <v>1.600195588502551e-05</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>-4.657570362091064</v>
+        <v>4.384980201721191</v>
       </c>
       <c r="AF60" t="n">
-        <v>9.010920524597168</v>
+        <v>5.140256404876709</v>
       </c>
     </row>
     <row r="61">
@@ -6573,10 +6573,10 @@
         <v>1.262040669588086</v>
       </c>
       <c r="AB61" t="n">
-        <v>22.54412232062873</v>
+        <v>22.54412227327427</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.272348371839094e-05</v>
+        <v>1.272348401970547e-05</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>-4.732857227325439</v>
+        <v>4.467473030090332</v>
       </c>
       <c r="AF61" t="n">
-        <v>8.934501647949219</v>
+        <v>5.261845588684082</v>
       </c>
     </row>
     <row r="62">
@@ -6673,10 +6673,10 @@
         <v>1.326537735811675</v>
       </c>
       <c r="AB62" t="n">
-        <v>21.93479357339652</v>
+        <v>21.93479353103735</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.725520386408608e-05</v>
+        <v>1.72552042295715e-05</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>-4.538889408111572</v>
+        <v>4.553428649902344</v>
       </c>
       <c r="AF62" t="n">
-        <v>9.322543144226074</v>
+        <v>5.478067874908447</v>
       </c>
     </row>
     <row r="63">
@@ -6773,10 +6773,10 @@
         <v>1.407001033805207</v>
       </c>
       <c r="AB63" t="n">
-        <v>20.87102972571743</v>
+        <v>20.87102969221151</v>
       </c>
       <c r="AC63" t="n">
-        <v>2.93706446754527e-05</v>
+        <v>2.937064516750354e-05</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>-4.324916839599609</v>
+        <v>4.662973880767822</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.656518936157227</v>
+        <v>5.784929275512695</v>
       </c>
     </row>
     <row r="64">
@@ -6873,10 +6873,10 @@
         <v>1.525445472123222</v>
       </c>
       <c r="AB64" t="n">
-        <v>20.46430823179419</v>
+        <v>20.46430819420448</v>
       </c>
       <c r="AC64" t="n">
-        <v>3.599415060528965e-05</v>
+        <v>3.599415128174854e-05</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>-4.235437393188477</v>
+        <v>4.600523948669434</v>
       </c>
       <c r="AF64" t="n">
-        <v>9.844819068908691</v>
+        <v>6.082609176635742</v>
       </c>
     </row>
     <row r="65">
@@ -6973,10 +6973,10 @@
         <v>1.667377773524082</v>
       </c>
       <c r="AB65" t="n">
-        <v>19.69151638840882</v>
+        <v>19.6915163463456</v>
       </c>
       <c r="AC65" t="n">
-        <v>5.297141157412089e-05</v>
+        <v>5.297141268822969e-05</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="AE65" t="n">
-        <v>-3.867720127105713</v>
+        <v>4.420213222503662</v>
       </c>
       <c r="AF65" t="n">
-        <v>10.06713581085205</v>
+        <v>6.327803611755371</v>
       </c>
     </row>
     <row r="66">
@@ -7073,10 +7073,10 @@
         <v>1.124538934076214</v>
       </c>
       <c r="AB66" t="n">
-        <v>34.12814373456067</v>
+        <v>34.12814368803568</v>
       </c>
       <c r="AC66" t="n">
-        <v>3.883003207860725e-08</v>
+        <v>3.883003296678567e-08</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -7084,10 +7084,10 @@
         </is>
       </c>
       <c r="AE66" t="n">
-        <v>-4.687250137329102</v>
+        <v>4.547086715698242</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.085575103759766</v>
+        <v>5.195213317871094</v>
       </c>
     </row>
     <row r="67">
@@ -7173,10 +7173,10 @@
         <v>1.149923918218327</v>
       </c>
       <c r="AB67" t="n">
-        <v>34.44798856107501</v>
+        <v>34.44798850815873</v>
       </c>
       <c r="AC67" t="n">
-        <v>3.309133800311059e-08</v>
+        <v>3.309133889128901e-08</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="AE67" t="n">
-        <v>-4.643197536468506</v>
+        <v>4.57982349395752</v>
       </c>
       <c r="AF67" t="n">
-        <v>9.259225845336914</v>
+        <v>5.257256031036377</v>
       </c>
     </row>
     <row r="68">
@@ -7273,10 +7273,10 @@
         <v>1.229650020650664</v>
       </c>
       <c r="AB68" t="n">
-        <v>32.59076561584823</v>
+        <v>32.59076556872615</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.375392446247076e-08</v>
+        <v>8.375392646087221e-08</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>-4.593428611755371</v>
+        <v>4.677714347839355</v>
       </c>
       <c r="AF68" t="n">
-        <v>9.391172409057617</v>
+        <v>5.5016188621521</v>
       </c>
     </row>
     <row r="69">
@@ -7373,10 +7373,10 @@
         <v>1.293647358636754</v>
       </c>
       <c r="AB69" t="n">
-        <v>30.91008888938195</v>
+        <v>30.91008884727232</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.940704800196258e-07</v>
+        <v>1.94070484127451e-07</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -7384,10 +7384,10 @@
         </is>
       </c>
       <c r="AE69" t="n">
-        <v>-4.444321155548096</v>
+        <v>4.687490940093994</v>
       </c>
       <c r="AF69" t="n">
-        <v>9.567353248596191</v>
+        <v>5.618652820587158</v>
       </c>
     </row>
     <row r="70">
@@ -7473,10 +7473,10 @@
         <v>1.41087388275249</v>
       </c>
       <c r="AB70" t="n">
-        <v>28.71527261659721</v>
+        <v>28.71527257242891</v>
       </c>
       <c r="AC70" t="n">
-        <v>5.815107908535566e-07</v>
+        <v>5.815108036211214e-07</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="AE70" t="n">
-        <v>-4.357788562774658</v>
+        <v>4.64789867401123</v>
       </c>
       <c r="AF70" t="n">
-        <v>9.757320404052734</v>
+        <v>5.893807411193848</v>
       </c>
     </row>
   </sheetData>
